--- a/Profils/DonnéesPDI-50_EnR-SaisonHiver.xlsx
+++ b/Profils/DonnéesPDI-50_EnR-SaisonHiver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison hiver/V2 Données hiver/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison hiver/V4 Données hiver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754AD4F0-C479-40FB-B228-487A30E1F70F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A469BA91-4660-45F0-A331-34372A720BB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:A4278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,22 +850,22 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>95</v>
+        <v>15.515964178154753</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -930,22 +930,22 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>95</v>
+        <v>55.401608614651131</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>5.9368253934260427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -1100,42 +1100,42 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>95</v>
+        <v>83.096722908912852</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -1170,32 +1170,32 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>95</v>
+        <v>80.272951107639742</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>95</v>
+        <v>4.3213699755077686</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>7.7735023291553791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>30.164812563031372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -1255,17 +1255,17 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>95</v>
+        <v>4.0515057388459539</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
@@ -1395,37 +1395,37 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>95</v>
+        <v>93.819392753747451</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>95</v>
+        <v>93.668449354023835</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>95</v>
+        <v>75.299897556222788</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>95</v>
+        <v>43.789206867182145</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>95</v>
+        <v>4.6149182731756442</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>95</v>
+        <v>15.457591691206545</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -1475,22 +1475,22 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>4.5700598739305134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>56.120644451071776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>95</v>
+        <v>86.683748785342544</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
@@ -1545,22 +1545,22 @@
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>95</v>
+        <v>23.160427171876581</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>95</v>
+        <v>20.454353438122126</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>95</v>
+        <v>26.984186849284086</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>95</v>
+        <v>61.998793602404987</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
@@ -1630,32 +1630,32 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>95</v>
+        <v>55.392762438496504</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>93.187944984883572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -1665,22 +1665,22 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>30.235048552081494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>4.5302325313351313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
@@ -1695,32 +1695,32 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>57.754599961580752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>65.948017624741411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>95</v>
+        <v>64.303972866541812</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>95</v>
+        <v>87.418280787613114</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -1755,17 +1755,17 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>95</v>
+        <v>67.567038371031742</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -1775,117 +1775,117 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>95</v>
+        <v>37.057363444268624</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>95</v>
+        <v>36.971508380157104</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>92.466439562022501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>69.551876626807129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>95</v>
+        <v>70.901738652691051</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
@@ -1935,42 +1935,42 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>95</v>
+        <v>81.266897229025716</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>95</v>
+        <v>22.169120443740031</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>95</v>
+        <v>19.289446477453094</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
@@ -2010,72 +2010,72 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>95</v>
+        <v>61.894848532872196</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>95</v>
+        <v>83.526295682658599</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>95</v>
+        <v>34.445015559717653</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>95</v>
+        <v>62.862839696489601</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>95</v>
+        <v>16.382122245287391</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -2165,32 +2165,32 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>36.647813715602609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
@@ -2215,87 +2215,87 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>52.238476492340489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>92.950635307112748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>95</v>
+        <v>66.45745065552525</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>95</v>
+        <v>9.608741783956285</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
@@ -2395,12 +2395,12 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
@@ -2510,22 +2510,22 @@
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>95</v>
+        <v>53.788815220037577</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>95</v>
+        <v>3.4405293665653875</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
@@ -2620,27 +2620,27 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>95</v>
+        <v>31.714919219636865</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>89.17642055299882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
@@ -2695,27 +2695,27 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>23.234600125460055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>95</v>
+        <v>62.232419536090092</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -2825,47 +2825,47 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>95</v>
+        <v>5.4442769929838688</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>69.90829859286481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>75.243873429205195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
@@ -2920,17 +2920,17 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
@@ -2990,12 +2990,12 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>95</v>
+        <v>52.027770847896981</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
@@ -3010,62 +3010,62 @@
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>95</v>
+        <v>92.36786477949812</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>95</v>
+        <v>60.324832178426071</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>95</v>
+        <v>51.722000194711661</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>95</v>
+        <v>25.838835658937963</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
@@ -3075,12 +3075,12 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>95</v>
+        <v>6.9285296193917016</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
@@ -3090,12 +3090,12 @@
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>95</v>
+        <v>23.543069568202409</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
@@ -3110,62 +3110,62 @@
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>95</v>
+        <v>7.5575696766759934</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>95</v>
+        <v>6.2280881068915921</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>95</v>
+        <v>56.308167204925482</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>95</v>
+        <v>44.064395727113222</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>95</v>
+        <v>16.043252898480496</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
@@ -3175,57 +3175,57 @@
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>95</v>
+        <v>28.487468368652845</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>95</v>
+        <v>55.842673125216024</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>95</v>
+        <v>51.56292214497946</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>62.765604148809729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -3245,12 +3245,12 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>44.567480837468395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>87.391710999005809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>37.089877591580958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>8.4635983698802733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>9.7339985226600412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
@@ -3305,67 +3305,67 @@
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>74.966493337675857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>95</v>
+        <v>25.440820203116672</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>3.1408038540885168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
@@ -3425,12 +3425,12 @@
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>38.998770246758866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>3.2509634538736281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
@@ -3505,42 +3505,42 @@
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>53.694088405311845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>15.976987392158989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
@@ -3585,17 +3585,17 @@
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>95</v>
+        <v>68.832505978965713</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>47.785377083033595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
@@ -3720,37 +3720,37 @@
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>14.555777615705082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>50.692044374009349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>95</v>
+        <v>93.186686429309404</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
@@ -3800,42 +3800,42 @@
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>95</v>
+        <v>26.440105994736584</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>95</v>
+        <v>10.712188685588407</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>16.041013734812367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
@@ -3910,12 +3910,12 @@
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>15.27628420496556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>43.758343178216528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
@@ -3925,37 +3925,37 @@
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>93.385637468183631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>95</v>
+        <v>32.479955538538555</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
@@ -4015,12 +4015,12 @@
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>95</v>
+        <v>82.818515929426283</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -4035,37 +4035,37 @@
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>95</v>
+        <v>1.2901355643293211</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>75.037161343777484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
@@ -4140,32 +4140,32 @@
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>31.094252533162582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>95</v>
+        <v>30.627523929410305</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
@@ -4205,32 +4205,32 @@
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>95</v>
+        <v>7.0484315147631431</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>95</v>
+        <v>49.118903412512957</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
@@ -4240,72 +4240,72 @@
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>84.140115462716707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>95</v>
+        <v>37.464747866537287</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>43.405927999026822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
@@ -4355,22 +4355,22 @@
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>95</v>
+        <v>81.481693051551048</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
@@ -4410,27 +4410,27 @@
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>95</v>
+        <v>80.980933006771011</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>95</v>
+        <v>91.635156949130987</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
@@ -4475,52 +4475,52 @@
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>95</v>
+        <v>33.469616052737031</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>95</v>
+        <v>9.6194718807454791</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>95</v>
+        <v>14.275567985191229</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>26.47707011197366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
@@ -4540,97 +4540,97 @@
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>78.39410257887873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
@@ -4640,12 +4640,12 @@
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>89.227253805887813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>3.0058362387742821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
@@ -5190,22 +5190,22 @@
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
-        <v>95</v>
+        <v>61.122725365602463</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
-        <v>95</v>
+        <v>66.670449782126738</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
@@ -5220,17 +5220,17 @@
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
-        <v>95</v>
+        <v>25.420651279984085</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
-        <v>34.021295672194327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
@@ -5360,32 +5360,32 @@
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
-        <v>33.631146424626863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
-        <v>4.8702004514235151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
-        <v>77.220935208765951</v>
+        <v>21.020935208765952</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
@@ -5580,22 +5580,22 @@
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1043" s="1">
-        <v>18.034190383052266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
@@ -5635,22 +5635,22 @@
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <v>95</v>
+        <v>70.852761593501427</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <v>95</v>
+        <v>35.232535676746267</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
-        <v>95</v>
+        <v>38.072702300340971</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
-        <v>44.203918743696633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
@@ -5660,7 +5660,7 @@
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <v>12.325598861330581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
@@ -5670,17 +5670,17 @@
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <v>84.151765823147358</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
-        <v>57.385544700178947</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
-        <v>0</v>
+        <v>32.62768494057083</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
@@ -6220,17 +6220,17 @@
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
-        <v>46.043691591028981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
@@ -6310,92 +6310,92 @@
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189" s="1">
-        <v>86.421679104836002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190" s="1">
-        <v>73.668132929933421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1191" s="1">
-        <v>70.841016952408182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
-        <v>31.592058396965072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1193" s="1">
-        <v>38.296002305143261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1195" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1196" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1197" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
-        <v>95</v>
+        <v>83.946205530363002</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
@@ -6465,27 +6465,27 @@
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
-        <v>95</v>
+        <v>88.810616721893823</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
@@ -6545,77 +6545,77 @@
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1236" s="1">
-        <v>84.533104884021952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243" s="1">
-        <v>65.677797819718464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1249" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
-        <v>95</v>
+        <v>37.734352975075524</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
@@ -6670,42 +6670,42 @@
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1261" s="1">
-        <v>95</v>
+        <v>68.085181643838226</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1265" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1268" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
-        <v>21.864002261790954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
@@ -6875,7 +6875,7 @@
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
-        <v>3.4292554876556824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
@@ -6895,17 +6895,17 @@
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
@@ -7030,157 +7030,157 @@
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1333" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1334" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1335" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1337" s="1">
-        <v>95</v>
+        <v>58.762574076742091</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338" s="1">
-        <v>95</v>
+        <v>93.959110214666794</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339" s="1">
-        <v>95</v>
+        <v>87.599754886423398</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
-        <v>95</v>
+        <v>11.107947173797802</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1346" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
-        <v>95</v>
+        <v>29.816762942652787</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
-        <v>95</v>
+        <v>69.061547964303401</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <v>95</v>
+        <v>21.290307541178116</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351" s="1">
-        <v>95</v>
+        <v>59.695830776765867</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352" s="1">
-        <v>95</v>
+        <v>31.450488312553425</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353" s="1">
-        <v>95</v>
+        <v>4.3833736901592788</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354" s="1">
-        <v>95</v>
+        <v>15.376868482938955</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1355" s="1">
-        <v>95</v>
+        <v>59.240121103740172</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1356" s="1">
-        <v>95</v>
+        <v>49.451981422069579</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1359" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1362" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363" s="1">
-        <v>46.547327186284164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
@@ -7235,32 +7235,32 @@
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1375" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1376" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1377" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1378" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1379" s="1">
-        <v>95</v>
+        <v>83.876611238022377</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
@@ -7275,107 +7275,107 @@
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1382" s="1">
-        <v>95</v>
+        <v>38.442920712672567</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1383" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1384" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1385" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1386" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1387" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1388" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1389" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1390" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1393" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1394" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
-        <v>1.1886740623349761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1396" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1397" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1398" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1399" s="1">
-        <v>89.251907518456505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1400" s="1">
-        <v>85.444402420176417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1401" s="1">
-        <v>90.179738503013141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1402" s="1">
-        <v>72.362114042183606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
@@ -7385,7 +7385,7 @@
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1404" s="1">
-        <v>94.260388487662922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
@@ -7410,102 +7410,102 @@
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1409" s="1">
-        <v>40.578216870711984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1410" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1411" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1412" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1413" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1415" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1416" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1417" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1418" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1419" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1420" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1421" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1422" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1424" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1425" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1426" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1428" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
@@ -7515,117 +7515,117 @@
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1430" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1431" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1433" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1434" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1436" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1438" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1439" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1440" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1442" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1448" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
-        <v>95</v>
+        <v>55.91937210705531</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
@@ -7695,147 +7695,147 @@
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1467" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1468" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1469" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1470" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1471" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1472" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1473" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1474" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1475" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1476" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1477" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1478" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1480" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1489" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
-        <v>95</v>
+        <v>4.4899542204065801</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
@@ -7905,37 +7905,37 @@
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
-        <v>95</v>
+        <v>66.30010392354562</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1511" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1512" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1513" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1514" s="1">
-        <v>86.980571003217406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
@@ -7985,127 +7985,127 @@
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1524" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1526" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1527" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1528" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1529" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1530" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1534" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="1">
-        <v>95</v>
+        <v>5.7126297959582741</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
-        <v>95</v>
+        <v>48.678467099105397</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
-        <v>95</v>
+        <v>30.276422716500168</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
-        <v>95</v>
+        <v>44.671452597219542</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
-        <v>74.817975687240178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
@@ -8125,17 +8125,17 @@
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
-        <v>73.207959275800604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
@@ -8220,57 +8220,57 @@
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1571" s="1">
-        <v>65.790256063006751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1572" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1573" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1574" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1575" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1576" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" s="1">
-        <v>95</v>
+        <v>9.4209024673591912</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
@@ -8295,77 +8295,77 @@
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
-        <v>95</v>
+        <v>29.303325823304988</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
-        <v>95</v>
+        <v>51.267651635584699</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1594" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1596" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1597" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1598" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1600" s="1">
-        <v>3.9825546751188088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
@@ -8460,132 +8460,132 @@
     </row>
     <row r="1619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1619" s="1">
-        <v>20.888629640302025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1620" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1621" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1627" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1628" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1629" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1630" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1640" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1641" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1642" s="1">
-        <v>72.42160449712209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643" s="1">
-        <v>93.416132656365733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1644" s="1">
-        <v>36.951114167195264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1646" s="1">
-        <v>69.408338555596345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
@@ -8680,112 +8680,112 @@
     </row>
     <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1663" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1664" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1665" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1666" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1667" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1668" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1669" s="1">
-        <v>95</v>
+        <v>31.502722566392837</v>
       </c>
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1670" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1671" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1672" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1673" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1674" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1679" s="1">
-        <v>95</v>
+        <v>24.705318935157191</v>
       </c>
     </row>
     <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1680" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1681" s="1">
-        <v>37.170950961700221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682" s="1">
-        <v>6.4873030753366034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1683" s="1">
-        <v>42.016480161957951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1684" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
@@ -8795,22 +8795,22 @@
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1686" s="1">
-        <v>1.9789194132273404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1687" s="1">
-        <v>35.693023828223737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1688" s="1">
-        <v>14.815116629303013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1689" s="1">
-        <v>3.9806270296370352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
@@ -8845,87 +8845,87 @@
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1696" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1697" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1701" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1702" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1703" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1704" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1705" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1706" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1707" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1708" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1709" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1710" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1711" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1712" s="1">
-        <v>41.143856504826033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
@@ -8935,7 +8935,7 @@
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1714" s="1">
-        <v>19.923843346299765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
@@ -8945,127 +8945,127 @@
     </row>
     <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1716" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1717" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1718" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1719" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1720" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1721" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1722" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1723" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1737" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1738" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1739" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1740" s="1">
-        <v>95</v>
+        <v>29.211275936085951</v>
       </c>
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
@@ -9110,37 +9110,37 @@
     </row>
     <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1749" s="1">
-        <v>95</v>
+        <v>86.144467653341621</v>
       </c>
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1750" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1751" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1752" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
-        <v>15.365519797679372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
@@ -9150,7 +9150,7 @@
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
-        <v>85.767542342526937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
@@ -9270,72 +9270,72 @@
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
-        <v>56.976619920617011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1782" s="1">
-        <v>52.096709519236974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1783" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1785" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1786" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1787" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1788" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1789" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1790" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1791" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1792" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1793" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1794" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
@@ -9475,127 +9475,127 @@
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1822" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1823" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1824" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1825" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1826" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1827" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1828" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1829" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1832" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1833" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1834" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1835" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1836" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1837" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1839" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1840" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1841" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1844" s="1">
-        <v>91.274015703788535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1845" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1846" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
@@ -9665,37 +9665,37 @@
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1860" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1861" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1862" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1863" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
@@ -9795,62 +9795,62 @@
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886" s="1">
-        <v>95</v>
+        <v>81.072285368375233</v>
       </c>
     </row>
     <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1887" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1888" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1889" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1890" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1891" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1892" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1893" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1895" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" s="1">
-        <v>70.010562503001353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1897" s="1">
-        <v>46.283873217115691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
@@ -9865,132 +9865,132 @@
     </row>
     <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1900" s="1">
-        <v>68.211696729578193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1901" s="1">
-        <v>66.602765355616214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1902" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1903" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1904" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1905" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1906" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1908" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1909" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1910" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1911" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1912" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1913" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1920" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1923" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1924" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1927" s="1">
-        <v>34.181443700666932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
@@ -10100,47 +10100,47 @@
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" s="1">
-        <v>53.675192479469914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1948" s="1">
-        <v>23.507485856985369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1949" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1950" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1951" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1952" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1953" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1954" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1955" s="1">
-        <v>95</v>
+        <v>12.299036498103161</v>
       </c>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
@@ -10165,12 +10165,12 @@
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" s="1">
-        <v>95</v>
+        <v>76.215726072131588</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
@@ -10210,17 +10210,17 @@
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" s="1">
-        <v>95</v>
+        <v>6.2062069826636428</v>
       </c>
     </row>
     <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1970" s="1">
-        <v>95</v>
+        <v>68.717462037170691</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1971" s="1">
-        <v>95</v>
+        <v>55.670883926427273</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
@@ -10235,17 +10235,17 @@
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974" s="1">
-        <v>95</v>
+        <v>91.025339464686041</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1975" s="1">
-        <v>95</v>
+        <v>48.316729101742894</v>
       </c>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1976" s="1">
-        <v>95</v>
+        <v>92.176402413448884</v>
       </c>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
@@ -10255,7 +10255,7 @@
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1978" s="1">
-        <v>95</v>
+        <v>86.450338095539124</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
@@ -10270,7 +10270,7 @@
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" s="1">
-        <v>95</v>
+        <v>61.460692159653917</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
@@ -10335,67 +10335,67 @@
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1994" s="1">
-        <v>95</v>
+        <v>58.230313403448598</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1996" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1997" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1998" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1999" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2000" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2001" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2002" s="1">
-        <v>16.866893915382025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2003" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2004" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2005" s="1">
-        <v>33.344451183786653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2006" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
@@ -10435,82 +10435,82 @@
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" s="1">
-        <v>51.945173663288223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2016" s="1">
-        <v>22.880047255438622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2017" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2018" s="1">
-        <v>89.671547556568626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2019" s="1">
-        <v>90.933795317248084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2020" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2021" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2023" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2025" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2026" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2027" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2028" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2029" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
@@ -10560,152 +10560,152 @@
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2039" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2040" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2041" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2042" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2043" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2044" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2045" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2046" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2047" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2048" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2049" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2050" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2051" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2052" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2053" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2054" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2055" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2056" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2057" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2058" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2059" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2060" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2061" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2065" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2067" s="1">
-        <v>95</v>
+        <v>48.413487777937483</v>
       </c>
     </row>
     <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2068" s="1">
-        <v>95</v>
+        <v>61.621279146021038</v>
       </c>
     </row>
     <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
@@ -10755,57 +10755,57 @@
     </row>
     <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2078" s="1">
-        <v>95</v>
+        <v>57.293359727373968</v>
       </c>
     </row>
     <row r="2079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2079" s="1">
-        <v>95</v>
+        <v>42.057707807757474</v>
       </c>
     </row>
     <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2080" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2081" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2082" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2083" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2084" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2085" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2086" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2087" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2088" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2089" spans="1:1" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
     </row>
     <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2090" s="1">
-        <v>12.715723911059831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2091" spans="1:1" x14ac:dyDescent="0.25">
@@ -10905,137 +10905,137 @@
     </row>
     <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2108" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2109" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2110" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2111" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2112" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2113" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2114" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2115" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2116" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2117" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2118" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2119" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2120" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2121" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2122" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2123" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2124" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2125" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2126" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2127" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2128" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2129" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2130" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2131" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2132" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2133" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2134" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2135" spans="1:1" x14ac:dyDescent="0.25">
@@ -11085,32 +11085,32 @@
     </row>
     <row r="2144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2144" s="1">
-        <v>57.320332893831583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2145" s="1">
-        <v>61.700868350639567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2146" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2147" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2148" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2149" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
@@ -11180,77 +11180,77 @@
     </row>
     <row r="2163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2163" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2164" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2165" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2166" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2167" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2168" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2169" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2170" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2171" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2172" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2173" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2174" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2175" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2176" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2177" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
@@ -11260,7 +11260,7 @@
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2179" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2180" spans="1:1" x14ac:dyDescent="0.25">
@@ -11330,22 +11330,22 @@
     </row>
     <row r="2193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2193" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2194" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2195" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2196" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
@@ -11360,47 +11360,47 @@
     </row>
     <row r="2199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2199" s="1">
-        <v>95</v>
+        <v>86.49206588868104</v>
       </c>
     </row>
     <row r="2200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2200" s="1">
-        <v>95</v>
+        <v>30.043745089564105</v>
       </c>
     </row>
     <row r="2201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2201" s="1">
-        <v>95</v>
+        <v>16.919895884358773</v>
       </c>
     </row>
     <row r="2202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2202" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2203" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2204" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2205" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2206" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2207" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2208" spans="1:1" x14ac:dyDescent="0.25">
@@ -11410,27 +11410,27 @@
     </row>
     <row r="2209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2209" s="1">
-        <v>95</v>
+        <v>67.831119819430683</v>
       </c>
     </row>
     <row r="2210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2210" s="1">
-        <v>95</v>
+        <v>89.001078422896896</v>
       </c>
     </row>
     <row r="2211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2211" s="1">
-        <v>95</v>
+        <v>89.698259424674248</v>
       </c>
     </row>
     <row r="2212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2212" s="1">
-        <v>95</v>
+        <v>87.594101399772839</v>
       </c>
     </row>
     <row r="2213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2213" s="1">
-        <v>95</v>
+        <v>72.45297326755005</v>
       </c>
     </row>
     <row r="2214" spans="1:1" x14ac:dyDescent="0.25">
@@ -11440,37 +11440,37 @@
     </row>
     <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2215" s="1">
-        <v>95</v>
+        <v>10.404312997955058</v>
       </c>
     </row>
     <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2216" s="1">
-        <v>95</v>
+        <v>42.634754738988924</v>
       </c>
     </row>
     <row r="2217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2217" s="1">
-        <v>95</v>
+        <v>73.199207840925013</v>
       </c>
     </row>
     <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2218" s="1">
-        <v>95</v>
+        <v>89.047082234531047</v>
       </c>
     </row>
     <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2219" s="1">
-        <v>95</v>
+        <v>66.769492324690731</v>
       </c>
     </row>
     <row r="2220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2220" s="1">
-        <v>95</v>
+        <v>80.725095017089259</v>
       </c>
     </row>
     <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2221" s="1">
-        <v>95</v>
+        <v>93.706483878665523</v>
       </c>
     </row>
     <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
@@ -11480,97 +11480,97 @@
     </row>
     <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2223" s="1">
-        <v>95</v>
+        <v>54.889125013103687</v>
       </c>
     </row>
     <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2224" s="1">
-        <v>95</v>
+        <v>28.841802622100442</v>
       </c>
     </row>
     <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2225" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2226" s="1">
-        <v>95</v>
+        <v>24.26332315228348</v>
       </c>
     </row>
     <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2227" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2228" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2229" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2230" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2231" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2232" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2233" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2234" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2235" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2236" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2237" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2238" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2239" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2240" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2241" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
@@ -11600,247 +11600,247 @@
     </row>
     <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2247" s="1">
-        <v>95</v>
+        <v>55.202663593141985</v>
       </c>
     </row>
     <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2248" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2249" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2250" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2251" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2253" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2255" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2256" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2257" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2258" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2259" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2260" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2262" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2264" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2265" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2266" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2267" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2268" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2269" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2270" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2271" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2272" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2273" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2274" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2275" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2276" s="1">
-        <v>95</v>
+        <v>9.0523854872021907</v>
       </c>
     </row>
     <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2277" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2278" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2279" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2283" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2284" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2285" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2286" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2287" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2288" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2289" s="1">
-        <v>35.902212553426146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2290" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2291" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2292" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2293" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2294" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2295" s="1">
-        <v>92.516837391346272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
@@ -12180,7 +12180,7 @@
     </row>
     <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2363" s="1">
-        <v>67.543719896679605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
@@ -13010,202 +13010,202 @@
     </row>
     <row r="2529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2529" s="1">
-        <v>61.747653027901471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2530" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2531" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2532" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2533" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2534" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2535" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2536" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2537" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2538" s="1">
-        <v>95</v>
+        <v>36.407269269557069</v>
       </c>
     </row>
     <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2539" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2540" s="1">
-        <v>95</v>
+        <v>39.243665562118622</v>
       </c>
     </row>
     <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2541" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2542" s="1">
-        <v>95</v>
+        <v>9.6940913413048122</v>
       </c>
     </row>
     <row r="2543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2543" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2544" s="1">
-        <v>62.692762426163753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2545" s="1">
-        <v>38.880099505354522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2546" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2547" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2548" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2549" s="1">
-        <v>75.910173768866144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2550" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2551" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2552" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2553" s="1">
-        <v>31.442354116435382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2554" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2555" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2556" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2557" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2558" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2559" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2560" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2562" s="1">
-        <v>95</v>
+        <v>32.577710608461565</v>
       </c>
     </row>
     <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2563" s="1">
-        <v>95</v>
+        <v>64.055695817124729</v>
       </c>
     </row>
     <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2564" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2565" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2566" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2567" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2568" s="1">
-        <v>51.218811986745209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2569" spans="1:1" x14ac:dyDescent="0.25">
@@ -13265,22 +13265,22 @@
     </row>
     <row r="2580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2580" s="1">
-        <v>2.8807248235123555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2581" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2582" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2583" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2584" spans="1:1" x14ac:dyDescent="0.25">
@@ -13335,42 +13335,42 @@
     </row>
     <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2594" s="1">
-        <v>42.103582384862747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2595" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2596" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2597" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2598" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2599" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2600" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2601" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
@@ -13520,7 +13520,7 @@
     </row>
     <row r="2631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2631" s="1">
-        <v>61.889006483215994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2632" spans="1:1" x14ac:dyDescent="0.25">
@@ -13590,12 +13590,12 @@
     </row>
     <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2645" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2646" s="1">
-        <v>95</v>
+        <v>58.825844317987716</v>
       </c>
     </row>
     <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
@@ -13630,17 +13630,17 @@
     </row>
     <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2653" s="1">
-        <v>95</v>
+        <v>90.3688554877304</v>
       </c>
     </row>
     <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2654" s="1">
-        <v>53.667749311175939</v>
+        <v>1.2677493111756486</v>
       </c>
     </row>
     <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2655" s="1">
-        <v>81.526431734139834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
@@ -13660,7 +13660,7 @@
     </row>
     <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2659" s="1">
-        <v>51.435579359362535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2660" spans="1:1" x14ac:dyDescent="0.25">
@@ -13750,32 +13750,32 @@
     </row>
     <row r="2677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2677" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2678" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2679" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2680" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2681" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2682" s="1">
-        <v>4.9717128175574912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2683" spans="1:1" x14ac:dyDescent="0.25">
@@ -13820,7 +13820,7 @@
     </row>
     <row r="2691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2691" s="1">
-        <v>41.289797986400586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2692" spans="1:1" x14ac:dyDescent="0.25">
@@ -13835,7 +13835,7 @@
     </row>
     <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2694" s="1">
-        <v>5.1807755050859852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
@@ -13990,7 +13990,7 @@
     </row>
     <row r="2725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2725" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2726" spans="1:1" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
     </row>
     <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2735" s="1">
-        <v>95</v>
+        <v>59.534607067050459</v>
       </c>
     </row>
     <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
@@ -14050,22 +14050,22 @@
     </row>
     <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2737" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2738" s="1">
-        <v>61.474043509580589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2739" s="1">
-        <v>54.012269509676777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2740" s="1">
-        <v>79.018796828035775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2741" spans="1:1" x14ac:dyDescent="0.25">
@@ -14080,17 +14080,17 @@
     </row>
     <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2743" s="1">
-        <v>95</v>
+        <v>19.468642808358055</v>
       </c>
     </row>
     <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2744" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2745" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
@@ -14220,7 +14220,7 @@
     </row>
     <row r="2771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2771" s="1">
-        <v>61.764901205846336</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2772" spans="1:1" x14ac:dyDescent="0.25">
@@ -14255,27 +14255,27 @@
     </row>
     <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2778" s="1">
-        <v>95</v>
+        <v>0.96584930125325641</v>
       </c>
     </row>
     <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2779" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2780" s="1">
-        <v>24.702438649570031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2781" s="1">
-        <v>41.773786078735064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2782" s="1">
-        <v>51.501814245733769</v>
+        <v>74.701814245733772</v>
       </c>
     </row>
     <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
@@ -14615,7 +14615,7 @@
     </row>
     <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2850" s="1">
-        <v>9.4772470345292099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
@@ -14715,22 +14715,22 @@
     </row>
     <row r="2870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2870" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2871" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2872" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2873" s="1">
-        <v>49.549676799692897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2874" spans="1:1" x14ac:dyDescent="0.25">
@@ -14765,7 +14765,7 @@
     </row>
     <row r="2880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2880" s="1">
-        <v>18.011692455457741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:1" x14ac:dyDescent="0.25">
@@ -14775,42 +14775,42 @@
     </row>
     <row r="2882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2882" s="1">
-        <v>12.30374319327726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2883" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2884" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2885" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2886" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2887" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2888" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2889" s="1">
-        <v>95</v>
+        <v>42.492540900691168</v>
       </c>
     </row>
     <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
@@ -14870,17 +14870,17 @@
     </row>
     <row r="2901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2901" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2902" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2903" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
@@ -14890,17 +14890,17 @@
     </row>
     <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2905" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2906" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2907" s="1">
-        <v>29.667507563751062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2908" spans="1:1" x14ac:dyDescent="0.25">
@@ -14945,77 +14945,77 @@
     </row>
     <row r="2916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2916" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2917" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2918" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2919" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2920" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2921" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2922" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2923" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2924" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2925" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2926" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2927" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2928" s="1">
-        <v>95</v>
+        <v>9.1485234596361273</v>
       </c>
     </row>
     <row r="2929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2929" s="1">
-        <v>95</v>
+        <v>9.8674354319742275</v>
       </c>
     </row>
     <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2930" s="1">
-        <v>95</v>
+        <v>49.7542528934354</v>
       </c>
     </row>
     <row r="2931" spans="1:1" x14ac:dyDescent="0.25">
@@ -15085,12 +15085,12 @@
     </row>
     <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2944" s="1">
-        <v>95</v>
+        <v>63.24690659367036</v>
       </c>
     </row>
     <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2945" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
@@ -15100,22 +15100,22 @@
     </row>
     <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2947" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2948" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2949" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2950" s="1">
-        <v>55.041530327041912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2951" spans="1:1" x14ac:dyDescent="0.25">
@@ -15190,32 +15190,32 @@
     </row>
     <row r="2965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2965" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2966" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2967" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2968" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2969" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2970" s="1">
-        <v>95</v>
+        <v>75.527524372088308</v>
       </c>
     </row>
     <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
@@ -15315,37 +15315,37 @@
     </row>
     <row r="2990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2990" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2991" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2992" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2993" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2994" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2995" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2996" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2997" spans="1:1" x14ac:dyDescent="0.25">
@@ -15425,12 +15425,12 @@
     </row>
     <row r="3012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3012" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3013" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3014" spans="1:1" x14ac:dyDescent="0.25">
@@ -15495,12 +15495,12 @@
     </row>
     <row r="3026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3026" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3027" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3028" spans="1:1" x14ac:dyDescent="0.25">
@@ -15515,72 +15515,72 @@
     </row>
     <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3030" s="1">
-        <v>95</v>
+        <v>82.620783387719342</v>
       </c>
     </row>
     <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3031" s="1">
-        <v>95</v>
+        <v>31.608937127476892</v>
       </c>
     </row>
     <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3032" s="1">
-        <v>95</v>
+        <v>26.445854557338684</v>
       </c>
     </row>
     <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3033" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3034" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3035" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3036" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3037" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3038" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3039" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3040" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3041" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3042" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3043" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3044" spans="1:1" x14ac:dyDescent="0.25">
@@ -15660,42 +15660,42 @@
     </row>
     <row r="3059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3059" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3060" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3061" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3062" s="1">
-        <v>95</v>
+        <v>33.504644767804635</v>
       </c>
     </row>
     <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3063" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3064" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3065" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3066" s="1">
-        <v>86.484679441002598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3067" spans="1:1" x14ac:dyDescent="0.25">
@@ -15710,17 +15710,17 @@
     </row>
     <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3069" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3070" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3071" s="1">
-        <v>12.088224243208751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
@@ -15900,37 +15900,37 @@
     </row>
     <row r="3107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3107" s="1">
-        <v>42.053035732711365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3108" s="1">
-        <v>60.249625098780598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3109" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3110" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3111" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3112" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3113" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3114" spans="1:1" x14ac:dyDescent="0.25">
@@ -16020,77 +16020,77 @@
     </row>
     <row r="3131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3131" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3132" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3133" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3134" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3135" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3136" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3137" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3138" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3139" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3140" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3141" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3142" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3143" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3144" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3145" s="1">
-        <v>57.643922743688378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3146" spans="1:1" x14ac:dyDescent="0.25">
@@ -16145,37 +16145,37 @@
     </row>
     <row r="3156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3156" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3157" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3158" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3159" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3160" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3161" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3162" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
@@ -16200,7 +16200,7 @@
     </row>
     <row r="3167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3167" s="1">
-        <v>22.96552148654817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3168" spans="1:1" x14ac:dyDescent="0.25">
@@ -16220,42 +16220,42 @@
     </row>
     <row r="3171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3171" s="1">
-        <v>21.34970414449279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3172" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3173" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3174" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3175" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3176" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3177" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3178" s="1">
-        <v>95</v>
+        <v>31.782411862369266</v>
       </c>
     </row>
     <row r="3179" spans="1:1" x14ac:dyDescent="0.25">
@@ -16285,22 +16285,22 @@
     </row>
     <row r="3184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3184" s="1">
-        <v>95</v>
+        <v>29.288775680737672</v>
       </c>
     </row>
     <row r="3185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3185" s="1">
-        <v>95</v>
+        <v>21.988542717188174</v>
       </c>
     </row>
     <row r="3186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3186" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3187" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
@@ -16390,22 +16390,22 @@
     </row>
     <row r="3205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3205" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3206" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3207" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3208" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3209" spans="1:1" x14ac:dyDescent="0.25">
@@ -16415,7 +16415,7 @@
     </row>
     <row r="3210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3210" s="1">
-        <v>23.459097728473065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3211" spans="1:1" x14ac:dyDescent="0.25">
@@ -16435,7 +16435,7 @@
     </row>
     <row r="3214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3214" s="1">
-        <v>6.3698156128238033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3215" spans="1:1" x14ac:dyDescent="0.25">
@@ -16445,37 +16445,37 @@
     </row>
     <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3216" s="1">
-        <v>44.294474896529501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3217" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3218" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3219" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3220" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3221" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3222" s="1">
-        <v>95</v>
+        <v>68.364535061592392</v>
       </c>
     </row>
     <row r="3223" spans="1:1" x14ac:dyDescent="0.25">
@@ -16490,7 +16490,7 @@
     </row>
     <row r="3225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3225" s="1">
-        <v>95</v>
+        <v>58.092227887039982</v>
       </c>
     </row>
     <row r="3226" spans="1:1" x14ac:dyDescent="0.25">
@@ -16500,52 +16500,52 @@
     </row>
     <row r="3227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3227" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3228" s="1">
-        <v>95</v>
+        <v>19.184229742964014</v>
       </c>
     </row>
     <row r="3229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3229" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3230" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3231" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3232" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3233" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3234" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3235" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3236" s="1">
-        <v>81.500138212552926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
@@ -16630,52 +16630,52 @@
     </row>
     <row r="3253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3253" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3254" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3255" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3256" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3257" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3258" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3259" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3260" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3261" s="1">
-        <v>95</v>
+        <v>6.1173287230464481</v>
       </c>
     </row>
     <row r="3262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3262" s="1">
-        <v>95</v>
+        <v>92.847485184651362</v>
       </c>
     </row>
     <row r="3263" spans="1:1" x14ac:dyDescent="0.25">
@@ -16700,7 +16700,7 @@
     </row>
     <row r="3267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3267" s="1">
-        <v>95</v>
+        <v>81.647013885984705</v>
       </c>
     </row>
     <row r="3268" spans="1:1" x14ac:dyDescent="0.25">
@@ -16710,77 +16710,77 @@
     </row>
     <row r="3269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3269" s="1">
-        <v>95</v>
+        <v>51.802639094640831</v>
       </c>
     </row>
     <row r="3270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3270" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3271" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3272" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3273" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3274" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3275" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3276" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3277" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3278" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3279" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3280" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3281" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3282" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3283" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
@@ -16860,17 +16860,17 @@
     </row>
     <row r="3299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3299" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3300" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3301" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
@@ -16925,67 +16925,67 @@
     </row>
     <row r="3312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3312" s="1">
-        <v>95</v>
+        <v>37.317045958795568</v>
       </c>
     </row>
     <row r="3313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3313" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3314" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3315" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3316" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3317" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3318" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3319" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3320" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3321" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3322" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3323" s="1">
-        <v>75.937898149512989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3324" s="1">
-        <v>42.396898197910851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3325" spans="1:1" x14ac:dyDescent="0.25">
@@ -17340,77 +17340,77 @@
     </row>
     <row r="3395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3395" s="1">
-        <v>75.495085914613085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3396" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3397" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3398" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3399" s="1">
-        <v>95</v>
+        <v>27.2314909475101</v>
       </c>
     </row>
     <row r="3400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3400" s="1">
-        <v>95</v>
+        <v>28.686085194256371</v>
       </c>
     </row>
     <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3401" s="1">
-        <v>95</v>
+        <v>38.787266388128558</v>
       </c>
     </row>
     <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3402" s="1">
-        <v>95</v>
+        <v>21.194617490274762</v>
       </c>
     </row>
     <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3403" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3404" s="1">
-        <v>42.377406905825119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3405" s="1">
-        <v>66.022750612303426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3406" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3407" s="1">
-        <v>7.7175488642366687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3408" s="1">
-        <v>55.139894539691369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3409" s="1">
-        <v>19.877993372713025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
@@ -17455,7 +17455,7 @@
     </row>
     <row r="3418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3418" s="1">
-        <v>2.1262433073569991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3419" spans="1:1" x14ac:dyDescent="0.25">
@@ -17465,57 +17465,57 @@
     </row>
     <row r="3420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3420" s="1">
-        <v>54.062367653546907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3421" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3422" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3423" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3424" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3425" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3426" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3427" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3428" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3429" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3430" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3431" spans="1:1" x14ac:dyDescent="0.25">
@@ -17700,27 +17700,27 @@
     </row>
     <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3467" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3468" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3469" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3470" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3471" s="1">
-        <v>43.424005961680741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3472" spans="1:1" x14ac:dyDescent="0.25">
@@ -18310,42 +18310,42 @@
     </row>
     <row r="3589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3589" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3590" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3591" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3592" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3593" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3594" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3595" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3596" s="1">
-        <v>25.296174422513506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
@@ -18900,62 +18900,62 @@
     </row>
     <row r="3707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3707" s="1">
-        <v>26.697593768936862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3708" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3709" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3710" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3711" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3712" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3713" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3714" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3715" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3716" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3717" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3718" s="1">
-        <v>23.513083465398449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3719" spans="1:1" x14ac:dyDescent="0.25">
